--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0225 - Sales melakukan Simulasi Performance Calculator.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0225 - Sales melakukan Simulasi Performance Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA98E4F-BFDF-4000-959B-4675F28D05F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB90DD-8B9E-4542-8D14-209B8866C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>RUN</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Performance Calculator</t>
-  </si>
-  <si>
-    <t>Juni</t>
   </si>
   <si>
     <t>DGS-240</t>
@@ -512,7 +509,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="10">
         <v>49998</v>
@@ -615,8 +612,9 @@
       <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
+      <c r="L2" s="8" t="str">
+        <f ca="1">IF(LEFT(TEXT(TODAY(),"mmmm"),3)="aug","agu",IF(LEFT(TEXT(TODAY(),"mmmm"),3)="oct","okt",IF(LEFT(TEXT(TODAY(),"mmmm"),3)="dec","des",LEFT(TEXT(TODAY(),"mmmm"),3))))</f>
+        <v>agu</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>16</v>
